--- a/inputfiles/Breakpoint.xlsx
+++ b/inputfiles/Breakpoint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasper\Downloads\GitRepos\DoclingProject\inputfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62F0F824-2ED4-4957-90FE-3A305BC178E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8184F5-B4C6-4945-A5C8-8CE4AA0C7684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{267D1AE0-8118-4B28-89EC-78002D0C205A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{267D1AE0-8118-4B28-89EC-78002D0C205A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,8 +187,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -216,11 +224,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,7 +547,7 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,10 +556,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -570,7 +579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -586,7 +595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -594,7 +603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -698,7 +707,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -706,7 +715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -786,7 +795,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -794,7 +803,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -905,5 +914,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>